--- a/data/trans_dic/P1422-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1422-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005796221457594616</v>
+        <v>0.005698443268607894</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002320061285364292</v>
+        <v>0.002375929498406109</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01325729686971663</v>
+        <v>0.01333279952709785</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.006459743527859244</v>
+        <v>0.005988135707174017</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.00676217144000723</v>
+        <v>0.0071685440290953</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01094000324876938</v>
+        <v>0.01025309480603453</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.007660704286782897</v>
+        <v>0.007069561479283104</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.005855667809350941</v>
+        <v>0.005476541724162551</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01403969190745908</v>
+        <v>0.01356846188160791</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02085872850629522</v>
+        <v>0.02051552748003535</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0114062184805662</v>
+        <v>0.01074070021689924</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03950527920501544</v>
+        <v>0.03885836991494036</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02000794796123602</v>
+        <v>0.01950109190034673</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02068756675211022</v>
+        <v>0.02134054718201387</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02839627352440376</v>
+        <v>0.02792207590474331</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01809069102280192</v>
+        <v>0.01700228694461228</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01365132317627036</v>
+        <v>0.01385925628761999</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02912188145150046</v>
+        <v>0.02947045528563451</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004136004743142752</v>
+        <v>0.004272316084331838</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.001972169273313561</v>
+        <v>0.0020253169813478</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008158095043024468</v>
+        <v>0.008267689403030106</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.001818008193014193</v>
+        <v>0.001821453385489852</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.007970276356551946</v>
+        <v>0.008070553606867186</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.003872633490619461</v>
+        <v>0.003831093693155325</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.001423877525983862</v>
+        <v>0.001464711444247703</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.009358690452020788</v>
+        <v>0.009257765931243993</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0178622723570163</v>
+        <v>0.01919139555215448</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01481790738325717</v>
+        <v>0.01403815485660838</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02130437646416872</v>
+        <v>0.02082218675598895</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01103095219125669</v>
+        <v>0.01071568383530943</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.006742124772741966</v>
+        <v>0.004746865640184333</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01968406769382742</v>
+        <v>0.0184182942252783</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01144693537681987</v>
+        <v>0.01159037858073713</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.008182041271423706</v>
+        <v>0.007859590125815096</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01758459840787156</v>
+        <v>0.01766887974351464</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.002972393684903</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.005953422579346918</v>
+        <v>0.005953422579346917</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.006913057372562557</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.003373986404650203</v>
+        <v>0.004260173034945076</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002047239213806127</v>
+        <v>0.002129313985302728</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.004058853753727882</v>
+        <v>0.003850054553126118</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.00121206050167783</v>
+        <v>0.001246813259924844</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.003075535350408744</v>
+        <v>0.002921926433524155</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.003994908700063285</v>
+        <v>0.003900475317242664</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0018354265968123</v>
+        <v>0.001942152785025915</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.004454420375533149</v>
+        <v>0.004091951295122546</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01584786865311796</v>
+        <v>0.01667611397784663</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01353737761789104</v>
+        <v>0.01305917100638482</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01601508867018284</v>
+        <v>0.0142377091000126</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01110036701361681</v>
+        <v>0.01099117552590867</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01044970221421293</v>
+        <v>0.01054607412942257</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01055889431978275</v>
+        <v>0.01091625791950767</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01220289090978639</v>
+        <v>0.01160469017719126</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.009272192321626458</v>
+        <v>0.009099124874090418</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01050090674051736</v>
+        <v>0.01018504043236395</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.001927889030976129</v>
+        <v>0.001895782832782962</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.00224685976889364</v>
+        <v>0.00222722015887458</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.006987904189209621</v>
+        <v>0.0070258233868586</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.002367534830096391</v>
+        <v>0.002385349973590148</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.004011423042795581</v>
+        <v>0.004167482057705688</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.003313399050772482</v>
+        <v>0.003323701807303054</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.002087383010438421</v>
+        <v>0.002089144329246482</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.006370990522259296</v>
+        <v>0.006441452070023296</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02628292954299064</v>
+        <v>0.02713564885703119</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02020855611090959</v>
+        <v>0.01920451294358545</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02091492020609471</v>
+        <v>0.02022688879960554</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01974624627318237</v>
+        <v>0.02052243582121637</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02138490392522182</v>
+        <v>0.02102710323798902</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0121759474070054</v>
+        <v>0.01249580939004566</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01738817325703751</v>
+        <v>0.0180161052313088</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01387333609241614</v>
+        <v>0.01455350522797757</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01434474880187027</v>
+        <v>0.01488215228147582</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.006167171864690744</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.01288982367271065</v>
+        <v>0.01288982367271064</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.007170174340095399</v>
@@ -1091,7 +1091,7 @@
         <v>0.005897652944801263</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.01033949505698718</v>
+        <v>0.01033949505698717</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.008490997367168782</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.006546318936116763</v>
+        <v>0.006889446168888086</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.003776736475156487</v>
+        <v>0.003936652578825689</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.009843859488844782</v>
+        <v>0.009824292343069351</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.004726282706924715</v>
+        <v>0.004484854595726582</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.003579825315138999</v>
+        <v>0.00352077722901565</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.00808159490447921</v>
+        <v>0.007781486191978926</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.006312281391552909</v>
+        <v>0.006409430626496375</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.004352345976047795</v>
+        <v>0.004368958009166441</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.009522600421546555</v>
+        <v>0.009496855176872388</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01380482818110382</v>
+        <v>0.01419436921965884</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.009300710640491415</v>
+        <v>0.009436817265573957</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01629493506503112</v>
+        <v>0.01671499980152456</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01034392906637759</v>
+        <v>0.01046335742391485</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.009105424758092949</v>
+        <v>0.009200627620089476</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01305495598092542</v>
+        <v>0.01334408111389212</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01087975702109065</v>
+        <v>0.01093069029310147</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.008370312892518345</v>
+        <v>0.008492050685509747</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01405544314676363</v>
+        <v>0.01382149834495752</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6051</v>
+        <v>5949</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2617</v>
+        <v>2680</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6600</v>
+        <v>6638</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7226</v>
+        <v>6699</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8517</v>
+        <v>9029</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6822</v>
+        <v>6394</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>16567</v>
+        <v>15289</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13981</v>
+        <v>13076</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>15745</v>
+        <v>15216</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>21775</v>
+        <v>21417</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12866</v>
+        <v>12115</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19669</v>
+        <v>19346</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>22382</v>
+        <v>21815</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>26057</v>
+        <v>26880</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>17707</v>
+        <v>17412</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>39123</v>
+        <v>36769</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>32593</v>
+        <v>33090</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>32659</v>
+        <v>33050</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4041</v>
+        <v>4174</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1792</v>
+        <v>1841</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7833</v>
+        <v>7938</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>8883</v>
+        <v>8994</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8014</v>
+        <v>7928</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2727</v>
+        <v>2805</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>19416</v>
+        <v>19206</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17453</v>
+        <v>18751</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13467</v>
+        <v>12758</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20455</v>
+        <v>19992</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>12049</v>
+        <v>11705</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6786</v>
+        <v>4778</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>21937</v>
+        <v>20526</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>23688</v>
+        <v>23985</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>15671</v>
+        <v>15053</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>36481</v>
+        <v>36656</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2986</v>
+        <v>3771</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1686</v>
+        <v>1754</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4244</v>
+        <v>4025</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1062</v>
+        <v>1092</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3220</v>
+        <v>3059</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7035</v>
+        <v>6868</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2927</v>
+        <v>3097</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>9321</v>
+        <v>8563</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14027</v>
+        <v>14760</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11152</v>
+        <v>10758</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16745</v>
+        <v>14886</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9722</v>
+        <v>9626</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8057</v>
+        <v>8132</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>11055</v>
+        <v>11429</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>21488</v>
+        <v>20435</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>14787</v>
+        <v>14511</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>21974</v>
+        <v>21313</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>970</v>
+        <v>954</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6813</v>
+        <v>6850</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1072</v>
+        <v>1080</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3641</v>
+        <v>3782</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3167</v>
+        <v>3177</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>11994</v>
+        <v>12127</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>13221</v>
+        <v>13650</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>10240</v>
+        <v>9731</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20392</v>
+        <v>19721</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>8940</v>
+        <v>9291</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>10472</v>
+        <v>10297</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>11051</v>
+        <v>11341</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>16619</v>
+        <v>17219</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>13823</v>
+        <v>14501</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>27005</v>
+        <v>28017</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>22317</v>
+        <v>23487</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>12717</v>
+        <v>13256</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>34243</v>
+        <v>34174</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>16729</v>
+        <v>15874</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>12625</v>
+        <v>12417</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>29842</v>
+        <v>28734</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>43862</v>
+        <v>44537</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>30005</v>
+        <v>30120</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>68288</v>
+        <v>68104</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>47063</v>
+        <v>48391</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>31318</v>
+        <v>31776</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>56683</v>
+        <v>58144</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>36612</v>
+        <v>37035</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>32113</v>
+        <v>32449</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>48207</v>
+        <v>49274</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>75600</v>
+        <v>75954</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>57706</v>
+        <v>58545</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>100794</v>
+        <v>99116</v>
       </c>
     </row>
     <row r="24">
